--- a/Technology/Software/HashiCorp.xlsx
+++ b/Technology/Software/HashiCorp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0182D1F1-5AB2-9745-A8FC-A418FB7C46C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A419F31-B3D2-2F4E-85F1-41CEAB0E40A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -893,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1033,6 +1033,8 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2221,13 +2223,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>58.99</v>
+    <v>44.34</v>
     <v>21.5</v>
-    <v>2.65</v>
-    <v>0.99</v>
-    <v>3.5675999999999999E-2</v>
-    <v>0.37</v>
-    <v>1.2874000000000002E-2</v>
+    <v>2.621</v>
+    <v>-0.05</v>
+    <v>-1.5249999999999999E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>HashiCorp, Inc. is a multi-cloud infrastructure automation software company. The Company's software suite enables organizations to adopt consistent workflows and create a system of record for automating the cloud for infrastructure provisioning, security, networking, and application deployment. Its products include Terraform, Vagrant, Consul, Packer, Nomad, Vault, Boundary, and Waypoint. Terraform is an infrastructure provisioning product that allows users to set up and manage information technology infrastructure. Terraform is cloud-neutral, supporting all public and private clouds. Vagrant is a secret management and data protection product. Consul is an application-centric networking automation product. Nomad is a scheduler and workload orchestrator that enables organizations to deploy and manage applications. It offers practitioners with a self-service interface to manage the application lifecycle. Its products are used by organizations of all sizes, across a range of industries.</v>
     <v>2400</v>
@@ -2235,24 +2237,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>101 Second Street, Suite 200, SAN FRANCISCO, CA, 94105 US</v>
-    <v>29.33</v>
+    <v>33.97</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.89305247656</v>
+    <v>45071.834147753907</v>
     <v>0</v>
-    <v>27.62</v>
-    <v>5498980000</v>
+    <v>32.43</v>
+    <v>6273949830</v>
     <v>HASHICORP, INC.</v>
     <v>HASHICORP, INC.</v>
-    <v>27.66</v>
-    <v>27.75</v>
-    <v>28.74</v>
-    <v>29.11</v>
-    <v>191335400</v>
+    <v>33.58</v>
+    <v>32.79</v>
+    <v>32.74</v>
+    <v>32.74</v>
+    <v>191629500</v>
     <v>HCP</v>
     <v>HASHICORP, INC. (XNAS:HCP)</v>
-    <v>1530450</v>
-    <v>1394751</v>
+    <v>1369088</v>
+    <v>1147539</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2414,9 +2416,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2836,10 +2838,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomRight" activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3345,15 +3347,15 @@
       </c>
       <c r="L16" s="31">
         <f>M101/E3</f>
-        <v>11.555173580393747</v>
+        <v>13.183641206247675</v>
       </c>
       <c r="M16" s="31">
         <f>M101/E28</f>
-        <v>-20.047466623890806</v>
+        <v>-22.872750913240345</v>
       </c>
       <c r="N16" s="32">
         <f>M101/E106</f>
-        <v>-58.837791568585494</v>
+        <v>-67.129786325700834</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4854,7 +4856,7 @@
       </c>
       <c r="M95" s="39" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.65</v>
+        <v>2.621</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4901,7 +4903,7 @@
       </c>
       <c r="M97" s="37">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.15503250000000002</v>
+        <v>0.15378405000000001</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4970,7 +4972,7 @@
       </c>
       <c r="M100" s="35">
         <f>M99/M103</f>
-        <v>2.8058993339865261E-3</v>
+        <v>2.4601621513177865E-3</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4994,7 +4996,7 @@
       </c>
       <c r="M101" s="40" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>5498980000</v>
+        <v>6273949830</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5018,7 +5020,7 @@
       </c>
       <c r="M102" s="35">
         <f>M101/M103</f>
-        <v>0.99719410066601344</v>
+        <v>0.99753983784868216</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5042,7 +5044,7 @@
       </c>
       <c r="M103" s="41">
         <f>M99+M101</f>
-        <v>5514453000</v>
+        <v>6289422830</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5083,18 +5085,28 @@
         <f>(E106/D106)-1</f>
         <v>0.48795593128592119</v>
       </c>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
+      <c r="F105" s="67">
+        <v>-86060000</v>
+      </c>
+      <c r="G105" s="67">
+        <v>7159000</v>
+      </c>
+      <c r="H105" s="67">
+        <v>91642000</v>
+      </c>
+      <c r="I105" s="67">
+        <v>150000000</v>
+      </c>
+      <c r="J105" s="67">
+        <v>215000000</v>
+      </c>
       <c r="K105" s="15"/>
       <c r="L105" s="26" t="s">
         <v>108</v>
       </c>
       <c r="M105" s="27">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.15459749441150375</v>
+        <v>0.15340571630071365</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5154,9 +5166,9 @@
       <c r="G107" s="43"/>
       <c r="H107" s="43"/>
       <c r="I107" s="43"/>
-      <c r="J107" s="46">
-        <f>J106*(1+M107)/(M108-M107)</f>
-        <v>-2361746716.4158254</v>
+      <c r="J107" s="68">
+        <f>J105*(1+M107)/(M108-M107)</f>
+        <v>1716239793.2807231</v>
       </c>
       <c r="K107" s="47" t="s">
         <v>148</v>
@@ -5185,9 +5197,9 @@
         <f>I107+I106</f>
         <v>-236706401.57412866</v>
       </c>
-      <c r="J108" s="46">
-        <f>J107+J106</f>
-        <v>-2660357893.861764</v>
+      <c r="J108" s="68">
+        <f>J107+J105</f>
+        <v>1931239793.2807231</v>
       </c>
       <c r="K108" s="47" t="s">
         <v>144</v>
@@ -5197,7 +5209,7 @@
       </c>
       <c r="M108" s="51">
         <f>M105</f>
-        <v>0.15459749441150375</v>
+        <v>0.15340571630071365</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5212,7 +5224,7 @@
       </c>
       <c r="G110" s="40">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>-1765331084.6267705</v>
+        <v>476021644.52234143</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5239,7 +5251,7 @@
       </c>
       <c r="G113" s="40">
         <f>G110+G111-G112</f>
-        <v>-494670084.6267705</v>
+        <v>1746682644.5223415</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5257,7 +5269,7 @@
       </c>
       <c r="G115" s="55">
         <f>G113/G114</f>
-        <v>-2.2691949195615737</v>
+        <v>8.0125390764775819</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5266,7 +5278,7 @@
       </c>
       <c r="G116" s="56" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>28.74</v>
+        <v>32.74</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5275,7 +5287,7 @@
       </c>
       <c r="G117" s="58">
         <f>G115/G116-1</f>
-        <v>-1.0789559818914953</v>
+        <v>-0.75526759082230965</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/HashiCorp.xlsx
+++ b/Technology/Software/HashiCorp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A419F31-B3D2-2F4E-85F1-41CEAB0E40A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C966E6F-FC27-0B4E-8793-CC6861B8CE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1012,6 +1012,8 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1033,8 +1035,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2225,11 +2225,11 @@
     <v>Powered by Refinitiv</v>
     <v>44.34</v>
     <v>21.5</v>
-    <v>2.621</v>
-    <v>-0.05</v>
-    <v>-1.5249999999999999E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>2.6230000000000002</v>
+    <v>0.24</v>
+    <v>7.3299999999999997E-3</v>
+    <v>0.55000000000000004</v>
+    <v>1.6677000000000001E-2</v>
     <v>USD</v>
     <v>HashiCorp, Inc. is a multi-cloud infrastructure automation software company. The Company's software suite enables organizations to adopt consistent workflows and create a system of record for automating the cloud for infrastructure provisioning, security, networking, and application deployment. Its products include Terraform, Vagrant, Consul, Packer, Nomad, Vault, Boundary, and Waypoint. Terraform is an infrastructure provisioning product that allows users to set up and manage information technology infrastructure. Terraform is cloud-neutral, supporting all public and private clouds. Vagrant is a secret management and data protection product. Consul is an application-centric networking automation product. Nomad is a scheduler and workload orchestrator that enables organizations to deploy and manage applications. It offers practitioners with a self-service interface to manage the application lifecycle. Its products are used by organizations of all sizes, across a range of industries.</v>
     <v>2400</v>
@@ -2240,21 +2240,21 @@
     <v>33.97</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45071.834147753907</v>
+    <v>45072.99620959453</v>
     <v>0</v>
-    <v>32.43</v>
-    <v>6273949830</v>
+    <v>32.69</v>
+    <v>6319940000</v>
     <v>HASHICORP, INC.</v>
     <v>HASHICORP, INC.</v>
-    <v>33.58</v>
-    <v>32.79</v>
+    <v>32.69</v>
     <v>32.74</v>
-    <v>32.74</v>
+    <v>32.979999999999997</v>
+    <v>33.53</v>
     <v>191629500</v>
     <v>HCP</v>
     <v>HASHICORP, INC. (XNAS:HCP)</v>
-    <v>1369088</v>
-    <v>1147539</v>
+    <v>1470601</v>
+    <v>1176138</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2416,9 +2416,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2838,10 +2838,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J99" sqref="J99"/>
+      <selection pane="bottomRight" activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3347,15 +3347,15 @@
       </c>
       <c r="L16" s="31">
         <f>M101/E3</f>
-        <v>13.183641206247675</v>
+        <v>13.28028174637363</v>
       </c>
       <c r="M16" s="31">
         <f>M101/E28</f>
-        <v>-22.872750913240345</v>
+        <v>-23.040415898037899</v>
       </c>
       <c r="N16" s="32">
         <f>M101/E106</f>
-        <v>-67.129786325700834</v>
+        <v>-67.621870318852984</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3450,13 +3450,13 @@
       <c r="E21" s="2">
         <v>-0.56459999999999999</v>
       </c>
-      <c r="K21" s="62" t="str" cm="1">
+      <c r="K21" s="64" t="str" cm="1">
         <f t="array" ref="K21">_FV(A1,"Description")</f>
         <v>HashiCorp, Inc. is a multi-cloud infrastructure automation software company. The Company's software suite enables organizations to adopt consistent workflows and create a system of record for automating the cloud for infrastructure provisioning, security, networking, and application deployment. Its products include Terraform, Vagrant, Consul, Packer, Nomad, Vault, Boundary, and Waypoint. Terraform is an infrastructure provisioning product that allows users to set up and manage information technology infrastructure. Terraform is cloud-neutral, supporting all public and private clouds. Vagrant is a secret management and data protection product. Consul is an application-centric networking automation product. Nomad is a scheduler and workload orchestrator that enables organizations to deploy and manage applications. It offers practitioners with a self-service interface to manage the application lifecycle. Its products are used by organizations of all sizes, across a range of industries.</v>
       </c>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
     </row>
     <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -3474,10 +3474,10 @@
       <c r="E22" s="10">
         <v>-297287000</v>
       </c>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -3495,10 +3495,10 @@
       <c r="E23" s="2">
         <v>-0.62470000000000003</v>
       </c>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
     </row>
     <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -3516,10 +3516,10 @@
       <c r="E24" s="1">
         <v>24002000</v>
       </c>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
     </row>
     <row r="25" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -3537,10 +3537,10 @@
       <c r="E25" s="10">
         <v>-273285000</v>
       </c>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
     </row>
     <row r="26" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -3558,10 +3558,10 @@
       <c r="E26" s="2">
         <v>-0.57430000000000003</v>
       </c>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
     </row>
     <row r="27" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -3579,10 +3579,10 @@
       <c r="E27" s="1">
         <v>1013000</v>
       </c>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
     </row>
     <row r="28" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -3600,10 +3600,10 @@
       <c r="E28" s="11">
         <v>-274298000</v>
       </c>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
     </row>
     <row r="29" spans="1:14" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
@@ -3622,10 +3622,10 @@
         <f>(E28/D28)-1</f>
         <v>-5.4594710103468058E-2</v>
       </c>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
     </row>
     <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -3643,10 +3643,10 @@
       <c r="E30" s="2">
         <v>-0.57640000000000002</v>
       </c>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
     </row>
     <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -3664,10 +3664,10 @@
       <c r="E31" s="12">
         <v>-1.47</v>
       </c>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
     </row>
     <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -3685,10 +3685,10 @@
       <c r="E32" s="12">
         <v>-1.47</v>
       </c>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
     </row>
     <row r="33" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -3706,10 +3706,10 @@
       <c r="E33" s="1">
         <v>186029000</v>
       </c>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
     </row>
     <row r="34" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -3727,10 +3727,10 @@
       <c r="E34" s="1">
         <v>186029000</v>
       </c>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
     </row>
     <row r="35" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
@@ -4569,10 +4569,10 @@
       <c r="E83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L83" s="63" t="s">
+      <c r="L83" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="M83" s="64"/>
+      <c r="M83" s="66"/>
     </row>
     <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4590,10 +4590,10 @@
       <c r="E84" s="1">
         <v>-1817000</v>
       </c>
-      <c r="L84" s="65" t="s">
+      <c r="L84" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="M84" s="66"/>
+      <c r="M84" s="68"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4807,10 +4807,10 @@
       <c r="E93" s="1">
         <v>-8746000</v>
       </c>
-      <c r="L93" s="65" t="s">
+      <c r="L93" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="M93" s="66"/>
+      <c r="M93" s="68"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="M95" s="39" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.621</v>
+        <v>2.6230000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="M97" s="37">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.15378405000000001</v>
+        <v>0.15387015000000004</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4922,10 +4922,10 @@
       <c r="E98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L98" s="65" t="s">
+      <c r="L98" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="M98" s="66"/>
+      <c r="M98" s="68"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="M100" s="35">
         <f>M99/M103</f>
-        <v>2.4601621513177865E-3</v>
+        <v>2.4423032878835207E-3</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="M101" s="40" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>6273949830</v>
+        <v>6319940000</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5020,7 +5020,7 @@
       </c>
       <c r="M102" s="35">
         <f>M101/M103</f>
-        <v>0.99753983784868216</v>
+        <v>0.99755769671211647</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="M103" s="41">
         <f>M99+M101</f>
-        <v>6289422830</v>
+        <v>6335413000</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5063,10 +5063,10 @@
       <c r="E104" s="11">
         <v>1286134000</v>
       </c>
-      <c r="L104" s="65" t="s">
+      <c r="L104" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="M104" s="66"/>
+      <c r="M104" s="68"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5085,19 +5085,19 @@
         <f>(E106/D106)-1</f>
         <v>0.48795593128592119</v>
       </c>
-      <c r="F105" s="67">
+      <c r="F105" s="60">
         <v>-86060000</v>
       </c>
-      <c r="G105" s="67">
+      <c r="G105" s="60">
         <v>7159000</v>
       </c>
-      <c r="H105" s="67">
+      <c r="H105" s="60">
         <v>91642000</v>
       </c>
-      <c r="I105" s="67">
+      <c r="I105" s="60">
         <v>150000000</v>
       </c>
-      <c r="J105" s="67">
+      <c r="J105" s="60">
         <v>215000000</v>
       </c>
       <c r="K105" s="15"/>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="M105" s="27">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.15340571630071365</v>
+        <v>0.15349435242674792</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5166,9 +5166,9 @@
       <c r="G107" s="43"/>
       <c r="H107" s="43"/>
       <c r="I107" s="43"/>
-      <c r="J107" s="68">
+      <c r="J107" s="61">
         <f>J105*(1+M107)/(M108-M107)</f>
-        <v>1716239793.2807231</v>
+        <v>1715055921.4314992</v>
       </c>
       <c r="K107" s="47" t="s">
         <v>148</v>
@@ -5197,9 +5197,9 @@
         <f>I107+I106</f>
         <v>-236706401.57412866</v>
       </c>
-      <c r="J108" s="68">
+      <c r="J108" s="61">
         <f>J107+J105</f>
-        <v>1931239793.2807231</v>
+        <v>1930055921.4314992</v>
       </c>
       <c r="K108" s="47" t="s">
         <v>144</v>
@@ -5209,14 +5209,14 @@
       </c>
       <c r="M108" s="51">
         <f>M105</f>
-        <v>0.15340571630071365</v>
+        <v>0.15349435242674792</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="60" t="s">
+      <c r="F109" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="G109" s="61"/>
+      <c r="G109" s="63"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="F110" s="52" t="s">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="G110" s="40">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>476021644.52234143</v>
+        <v>475172807.26286083</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="G113" s="40">
         <f>G110+G111-G112</f>
-        <v>1746682644.5223415</v>
+        <v>1745833807.2628608</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="G115" s="55">
         <f>G113/G114</f>
-        <v>8.0125390764775819</v>
+        <v>8.0086452141709472</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="G116" s="56" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>32.74</v>
+        <v>32.979999999999997</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="G117" s="58">
         <f>G115/G116-1</f>
-        <v>-0.75526759082230965</v>
+        <v>-0.75716660963702398</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/HashiCorp.xlsx
+++ b/Technology/Software/HashiCorp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C966E6F-FC27-0B4E-8793-CC6861B8CE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C641D92-B153-EF43-891C-C0D8881BDFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2225,11 +2225,9 @@
     <v>Powered by Refinitiv</v>
     <v>44.34</v>
     <v>21.5</v>
-    <v>2.6230000000000002</v>
-    <v>0.24</v>
-    <v>7.3299999999999997E-3</v>
-    <v>0.55000000000000004</v>
-    <v>1.6677000000000001E-2</v>
+    <v>2.6059999999999999</v>
+    <v>0.48</v>
+    <v>1.8154E-2</v>
     <v>USD</v>
     <v>HashiCorp, Inc. is a multi-cloud infrastructure automation software company. The Company's software suite enables organizations to adopt consistent workflows and create a system of record for automating the cloud for infrastructure provisioning, security, networking, and application deployment. Its products include Terraform, Vagrant, Consul, Packer, Nomad, Vault, Boundary, and Waypoint. Terraform is an infrastructure provisioning product that allows users to set up and manage information technology infrastructure. Terraform is cloud-neutral, supporting all public and private clouds. Vagrant is a secret management and data protection product. Consul is an application-centric networking automation product. Nomad is a scheduler and workload orchestrator that enables organizations to deploy and manage applications. It offers practitioners with a self-service interface to manage the application lifecycle. Its products are used by organizations of all sizes, across a range of industries.</v>
     <v>2400</v>
@@ -2237,24 +2235,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>101 Second Street, Suite 200, SAN FRANCISCO, CA, 94105 US</v>
-    <v>33.97</v>
+    <v>27.15</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.99620959453</v>
+    <v>45099.99634158516</v>
     <v>0</v>
-    <v>32.69</v>
-    <v>6319940000</v>
+    <v>25.66</v>
+    <v>5165514588</v>
     <v>HASHICORP, INC.</v>
     <v>HASHICORP, INC.</v>
-    <v>32.69</v>
-    <v>32.74</v>
-    <v>32.979999999999997</v>
-    <v>33.53</v>
-    <v>191629500</v>
+    <v>26.25</v>
+    <v>26.44</v>
+    <v>26.92</v>
+    <v>191883900</v>
     <v>HCP</v>
     <v>HASHICORP, INC. (XNAS:HCP)</v>
-    <v>1470601</v>
-    <v>1176138</v>
+    <v>63</v>
+    <v>2717146</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2286,8 +2283,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2307,7 +2302,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2324,7 +2318,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2335,16 +2329,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2408,19 +2399,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2464,9 +2449,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2474,9 +2456,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2841,7 +2820,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I101" sqref="I101"/>
+      <selection pane="bottomRight" activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3347,15 +3326,15 @@
       </c>
       <c r="L16" s="31">
         <f>M101/E3</f>
-        <v>13.28028174637363</v>
+        <v>10.854452588733928</v>
       </c>
       <c r="M16" s="31">
         <f>M101/E28</f>
-        <v>-23.040415898037899</v>
+        <v>-18.831761762754375</v>
       </c>
       <c r="N16" s="32">
         <f>M101/E106</f>
-        <v>-67.621870318852984</v>
+        <v>-55.269790156216565</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4856,7 +4835,7 @@
       </c>
       <c r="M95" s="39" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.6230000000000002</v>
+        <v>2.6059999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4903,7 +4882,7 @@
       </c>
       <c r="M97" s="37">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.15387015000000004</v>
+        <v>0.1531383</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4972,7 +4951,7 @@
       </c>
       <c r="M100" s="35">
         <f>M99/M103</f>
-        <v>2.4423032878835207E-3</v>
+        <v>2.9864962494482623E-3</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4996,7 +4975,7 @@
       </c>
       <c r="M101" s="40" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>6319940000</v>
+        <v>5165514588</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5020,7 +4999,7 @@
       </c>
       <c r="M102" s="35">
         <f>M101/M103</f>
-        <v>0.99755769671211647</v>
+        <v>0.99701350375055176</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5044,7 +5023,7 @@
       </c>
       <c r="M103" s="41">
         <f>M99+M101</f>
-        <v>6335413000</v>
+        <v>5180987588</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5106,7 +5085,7 @@
       </c>
       <c r="M105" s="27">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.15349435242674792</v>
+        <v>0.15268095304140311</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5168,7 +5147,7 @@
       <c r="I107" s="43"/>
       <c r="J107" s="61">
         <f>J105*(1+M107)/(M108-M107)</f>
-        <v>1715055921.4314992</v>
+        <v>1725981790.9452708</v>
       </c>
       <c r="K107" s="47" t="s">
         <v>148</v>
@@ -5199,7 +5178,7 @@
       </c>
       <c r="J108" s="61">
         <f>J107+J105</f>
-        <v>1930055921.4314992</v>
+        <v>1940981790.9452708</v>
       </c>
       <c r="K108" s="47" t="s">
         <v>144</v>
@@ -5209,7 +5188,7 @@
       </c>
       <c r="M108" s="51">
         <f>M105</f>
-        <v>0.15349435242674792</v>
+        <v>0.15268095304140311</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5224,7 +5203,7 @@
       </c>
       <c r="G110" s="40">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>475172807.26286083</v>
+        <v>483014687.90952343</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5251,7 +5230,7 @@
       </c>
       <c r="G113" s="40">
         <f>G110+G111-G112</f>
-        <v>1745833807.2628608</v>
+        <v>1753675687.9095235</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5269,7 +5248,7 @@
       </c>
       <c r="G115" s="55">
         <f>G113/G114</f>
-        <v>8.0086452141709472</v>
+        <v>8.0446181914667978</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5278,7 +5257,7 @@
       </c>
       <c r="G116" s="56" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>32.979999999999997</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5287,7 +5266,7 @@
       </c>
       <c r="G117" s="58">
         <f>G115/G116-1</f>
-        <v>-0.75716660963702398</v>
+        <v>-0.70116574325903436</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/HashiCorp.xlsx
+++ b/Technology/Software/HashiCorp.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C641D92-B153-EF43-891C-C0D8881BDFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF2A8EA-8B2F-D947-B787-C3E572B421C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -435,9 +432,6 @@
     <t>Debt to Equity</t>
   </si>
   <si>
-    <t>Share Dilution (4yr)</t>
-  </si>
-  <si>
     <t>P/S</t>
   </si>
   <si>
@@ -510,9 +504,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -549,19 +540,54 @@
     <t>Buy/Sell</t>
   </si>
   <si>
-    <t>Shares</t>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Share Dilution (3yr)</t>
+  </si>
+  <si>
+    <t>Shares (No dilution)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -830,22 +856,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -853,47 +870,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -938,101 +920,98 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1085,7 +1064,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>HCP</a:t>
+              <a:t>HashiCorp</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1124,10 +1103,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.1385071907333911E-2"/>
-          <c:y val="0.11568212126604391"/>
-          <c:w val="0.87440005205960825"/>
-          <c:h val="0.78840649123847628"/>
+          <c:x val="8.6215536490774472E-2"/>
+          <c:y val="0.15261994590786154"/>
+          <c:w val="0.84612277196693708"/>
+          <c:h val="0.70020418852494581"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1181,6 +1160,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$E$3</c:f>
@@ -1204,7 +1204,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4658-5648-8A97-0061AE21C4DB}"/>
+              <c16:uniqueId val="{00000000-2211-CD43-ACE9-02BE9F10FACC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1213,11 +1213,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1255,30 +1255,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$E$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-52600000</c:v>
+                  <c:v>-53370000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-82365000</c:v>
+                  <c:v>-83515000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-286654000</c:v>
+                  <c:v>-290138000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-268697000</c:v>
+                  <c:v>-274298000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4658-5648-8A97-0061AE21C4DB}"/>
+              <c16:uniqueId val="{00000001-2211-CD43-ACE9-02BE9F10FACC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1287,11 +1308,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1329,9 +1350,30 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$E$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$E$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1352,7 +1394,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4658-5648-8A97-0061AE21C4DB}"/>
+              <c16:uniqueId val="{00000002-2211-CD43-ACE9-02BE9F10FACC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1366,11 +1408,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1461696672"/>
-        <c:axId val="1461525840"/>
+        <c:axId val="497902672"/>
+        <c:axId val="82559600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1461696672"/>
+        <c:axId val="497902672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,7 +1440,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1410,7 +1452,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1461525840"/>
+        <c:crossAx val="82559600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1418,7 +1460,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1461525840"/>
+        <c:axId val="82559600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,7 +1508,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1461696672"/>
+        <c:crossAx val="497902672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1484,10 +1526,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34847306566018088"/>
-          <c:y val="0.9307749916986755"/>
-          <c:w val="0.30305376456042166"/>
-          <c:h val="4.8104443134957084E-2"/>
+          <c:x val="0.35320301380237923"/>
+          <c:y val="0.89340382735971269"/>
+          <c:w val="0.31482106527728809"/>
+          <c:h val="6.7235773953540273E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2067,22 +2109,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
+      <xdr:colOff>31749</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:rowOff>65088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
+      <xdr:colOff>1587499</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E275C290-6330-8BC0-7893-9F92AC5A54FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCFD404-2F9D-46E7-82AF-EABFA839D238}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,6 +2143,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2817,10 +2913,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F100" sqref="F100"/>
+      <selection pane="bottomRight" activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2846,20 +2942,20 @@
       <c r="E1" s="8">
         <v>2023</v>
       </c>
-      <c r="F1" s="28">
-        <v>2023</v>
-      </c>
-      <c r="G1" s="28">
+      <c r="F1" s="24">
         <v>2024</v>
       </c>
-      <c r="H1" s="28">
+      <c r="G1" s="24">
         <v>2025</v>
       </c>
-      <c r="I1" s="28">
+      <c r="H1" s="24">
         <v>2026</v>
       </c>
-      <c r="J1" s="28">
+      <c r="I1" s="24">
         <v>2027</v>
+      </c>
+      <c r="J1" s="24">
+        <v>2028</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -2867,25 +2963,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -2910,37 +3006,37 @@
       <c r="E3" s="1">
         <v>475889000</v>
       </c>
-      <c r="F3" s="29">
-        <v>593200000</v>
-      </c>
-      <c r="G3" s="29">
-        <v>749400000</v>
-      </c>
-      <c r="H3" s="29">
-        <v>953000000</v>
-      </c>
-      <c r="I3" s="29">
+      <c r="F3" s="25">
+        <v>567100000</v>
+      </c>
+      <c r="G3" s="25">
+        <v>681000000</v>
+      </c>
+      <c r="H3" s="25">
+        <v>832000000</v>
+      </c>
+      <c r="I3" s="25">
         <v>1168000000</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="25">
         <v>1519000000</v>
       </c>
       <c r="K3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="N3" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -2957,19 +3053,19 @@
       </c>
       <c r="F4" s="16">
         <f t="shared" ref="F4:J4" si="0">(F3/E3)-1</f>
-        <v>0.24650916495233122</v>
+        <v>0.19166444275871064</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>0.263317599460553</v>
+        <v>0.20084641156762473</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.27168401387776897</v>
+        <v>0.2217327459618208</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.22560335781741858</v>
+        <v>0.40384615384615374</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
@@ -2988,7 +3084,7 @@
         <v>0.9947727397087377</v>
       </c>
       <c r="N4" s="17">
-        <f>(E105+D105+C105)/3</f>
+        <f>(E106+D106+C106)/3</f>
         <v>0.47504889829869579</v>
       </c>
       <c r="T4" s="16"/>
@@ -3043,16 +3139,16 @@
         <v>388920000</v>
       </c>
       <c r="K6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="N6" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3084,7 +3180,7 @@
         <v>-0.57640000000000002</v>
       </c>
       <c r="N7" s="21">
-        <f>E106/E3</f>
+        <f>E107/E3</f>
         <v>-0.1963903347209118</v>
       </c>
     </row>
@@ -3107,7 +3203,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3128,16 +3224,16 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="K9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="M9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="N9" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3170,7 +3266,7 @@
       </c>
       <c r="N10" s="21">
         <f>E89</f>
-        <v>5.2953524876599373E-4</v>
+        <v>1.8378235260743576E-2</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3207,21 +3303,21 @@
         <v>490823000</v>
       </c>
       <c r="K12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="N12" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3263,16 +3359,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -3292,16 +3388,16 @@
         <v>686207000</v>
       </c>
       <c r="K15" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" s="20" t="s">
         <v>121</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3320,20 +3416,20 @@
       <c r="E16" s="1">
         <v>773176000</v>
       </c>
-      <c r="K16" s="30">
-        <f>(E35+D35+C35+B35)/4</f>
-        <v>3.4365234111993104E-2</v>
-      </c>
-      <c r="L16" s="31">
+      <c r="K16" s="26">
+        <f>(E35+D35+C35)/3</f>
+        <v>4.5820312149324138E-2</v>
+      </c>
+      <c r="L16" s="65">
         <f>M101/E3</f>
         <v>10.854452588733928</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="65">
         <f>M101/E28</f>
         <v>-18.831761762754375</v>
       </c>
-      <c r="N16" s="32">
-        <f>M101/E106</f>
+      <c r="N16" s="56">
+        <f>M101/E107</f>
         <v>-55.269790156216565</v>
       </c>
     </row>
@@ -3342,13 +3438,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -3371,7 +3467,16 @@
         <v>4588000</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3390,14 +3495,41 @@
       <c r="E19" s="10">
         <v>-268697000</v>
       </c>
-      <c r="K19" s="33">
+      <c r="F19" s="59">
+        <v>-104000000</v>
+      </c>
+      <c r="G19" s="59">
+        <v>-32000000</v>
+      </c>
+      <c r="H19" s="59">
+        <v>16000000</v>
+      </c>
+      <c r="I19" s="59">
+        <v>109000000</v>
+      </c>
+      <c r="J19" s="59">
+        <v>217600000</v>
+      </c>
+      <c r="K19" s="27">
         <f>E40-E56-E61</f>
         <v>1270661000</v>
       </c>
+      <c r="L19" s="55">
+        <f>M101/F3</f>
+        <v>9.1086485417034027</v>
+      </c>
+      <c r="M19" s="55">
+        <f>M101/F28</f>
+        <v>-103.31029176</v>
+      </c>
+      <c r="N19" s="56">
+        <f>M101/F105</f>
+        <v>-22.665647163719623</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3412,6 +3544,26 @@
         <f>(E19/D19)-1</f>
         <v>-6.2643465641505136E-2</v>
       </c>
+      <c r="F20" s="16">
+        <f t="shared" ref="F20:J20" si="3">(F19/E19)-1</f>
+        <v>-0.61294692534713824</v>
+      </c>
+      <c r="G20" s="16">
+        <f t="shared" si="3"/>
+        <v>-0.69230769230769229</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" si="3"/>
+        <v>-1.5</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" si="3"/>
+        <v>5.8125</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.99633027522935791</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -3429,13 +3581,33 @@
       <c r="E21" s="2">
         <v>-0.56459999999999999</v>
       </c>
-      <c r="K21" s="64" t="str" cm="1">
-        <f t="array" ref="K21">_FV(A1,"Description")</f>
-        <v>HashiCorp, Inc. is a multi-cloud infrastructure automation software company. The Company's software suite enables organizations to adopt consistent workflows and create a system of record for automating the cloud for infrastructure provisioning, security, networking, and application deployment. Its products include Terraform, Vagrant, Consul, Packer, Nomad, Vault, Boundary, and Waypoint. Terraform is an infrastructure provisioning product that allows users to set up and manage information technology infrastructure. Terraform is cloud-neutral, supporting all public and private clouds. Vagrant is a secret management and data protection product. Consul is an application-centric networking automation product. Nomad is a scheduler and workload orchestrator that enables organizations to deploy and manage applications. It offers practitioners with a self-service interface to manage the application lifecycle. Its products are used by organizations of all sizes, across a range of industries.</v>
-      </c>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
+      <c r="F21" s="62">
+        <f>F19/F3</f>
+        <v>-0.18338917298536414</v>
+      </c>
+      <c r="G21" s="62">
+        <f t="shared" ref="G21:J21" si="4">G19/G3</f>
+        <v>-4.6989720998531569E-2</v>
+      </c>
+      <c r="H21" s="62">
+        <f t="shared" si="4"/>
+        <v>1.9230769230769232E-2</v>
+      </c>
+      <c r="I21" s="62">
+        <f t="shared" si="4"/>
+        <v>9.3321917808219176E-2</v>
+      </c>
+      <c r="J21" s="62">
+        <f t="shared" si="4"/>
+        <v>0.14325213956550362</v>
+      </c>
+      <c r="K21" s="34"/>
+      <c r="M21" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -3453,10 +3625,15 @@
       <c r="E22" s="10">
         <v>-297287000</v>
       </c>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
+      <c r="K22" s="34"/>
+      <c r="M22" s="57">
+        <f>(-1*E98)/M101</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="58">
+        <f>E107/M101</f>
+        <v>-1.8093066703773676E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -3474,10 +3651,10 @@
       <c r="E23" s="2">
         <v>-0.62470000000000003</v>
       </c>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
     </row>
     <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -3495,10 +3672,10 @@
       <c r="E24" s="1">
         <v>24002000</v>
       </c>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
     </row>
     <row r="25" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -3516,10 +3693,10 @@
       <c r="E25" s="10">
         <v>-273285000</v>
       </c>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
     </row>
     <row r="26" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -3537,10 +3714,10 @@
       <c r="E26" s="2">
         <v>-0.57430000000000003</v>
       </c>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
     </row>
     <row r="27" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -3558,10 +3735,10 @@
       <c r="E27" s="1">
         <v>1013000</v>
       </c>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
     </row>
     <row r="28" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -3579,14 +3756,29 @@
       <c r="E28" s="11">
         <v>-274298000</v>
       </c>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
+      <c r="F28" s="61">
+        <v>-50000000</v>
+      </c>
+      <c r="G28" s="61">
+        <v>-15000000</v>
+      </c>
+      <c r="H28" s="61">
+        <v>8000000</v>
+      </c>
+      <c r="I28" s="61">
+        <v>49000000</v>
+      </c>
+      <c r="J28" s="61">
+        <v>106000000</v>
+      </c>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
     </row>
     <row r="29" spans="1:14" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -3601,10 +3793,30 @@
         <f>(E28/D28)-1</f>
         <v>-5.4594710103468058E-2</v>
       </c>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
+      <c r="F29" s="16">
+        <f t="shared" ref="F29:J29" si="5">(F28/E28)-1</f>
+        <v>-0.81771649811518854</v>
+      </c>
+      <c r="G29" s="16">
+        <f t="shared" si="5"/>
+        <v>-0.7</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="5"/>
+        <v>-1.5333333333333332</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" si="5"/>
+        <v>5.125</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="5"/>
+        <v>1.1632653061224492</v>
+      </c>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
     </row>
     <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -3622,10 +3834,30 @@
       <c r="E30" s="2">
         <v>-0.57640000000000002</v>
       </c>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
+      <c r="F30" s="60">
+        <f>F28/F3</f>
+        <v>-8.8167871627578914E-2</v>
+      </c>
+      <c r="G30" s="60">
+        <f t="shared" ref="G30:J30" si="6">G28/G3</f>
+        <v>-2.2026431718061675E-2</v>
+      </c>
+      <c r="H30" s="60">
+        <f t="shared" si="6"/>
+        <v>9.6153846153846159E-3</v>
+      </c>
+      <c r="I30" s="60">
+        <f t="shared" si="6"/>
+        <v>4.1952054794520549E-2</v>
+      </c>
+      <c r="J30" s="60">
+        <f t="shared" si="6"/>
+        <v>6.9782751810401583E-2</v>
+      </c>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
     </row>
     <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -3643,10 +3875,30 @@
       <c r="E31" s="12">
         <v>-1.47</v>
       </c>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
+      <c r="F31" s="64">
+        <f>F28/$E$33</f>
+        <v>-0.26877529847496895</v>
+      </c>
+      <c r="G31" s="64">
+        <f t="shared" ref="G31:J31" si="7">G28/$E$33</f>
+        <v>-8.0632589542490682E-2</v>
+      </c>
+      <c r="H31" s="64">
+        <f t="shared" si="7"/>
+        <v>4.3004047755995034E-2</v>
+      </c>
+      <c r="I31" s="64">
+        <f t="shared" si="7"/>
+        <v>0.26339979250546958</v>
+      </c>
+      <c r="J31" s="64">
+        <f t="shared" si="7"/>
+        <v>0.56980363276693424</v>
+      </c>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
     </row>
     <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -3664,10 +3916,10 @@
       <c r="E32" s="12">
         <v>-1.47</v>
       </c>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
     </row>
     <row r="33" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -3685,10 +3937,10 @@
       <c r="E33" s="1">
         <v>186029000</v>
       </c>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="64"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
     </row>
     <row r="34" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -3706,14 +3958,14 @@
       <c r="E34" s="1">
         <v>186029000</v>
       </c>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
     </row>
     <row r="35" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23">
@@ -3721,11 +3973,11 @@
         <v>-1.7919550905974562E-2</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:E35" si="3">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:E35" si="8">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.15538048735394697</v>
       </c>
     </row>
@@ -3734,16 +3986,16 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -3751,16 +4003,16 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3788,13 +4040,13 @@
         <v>30000000</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3836,16 +4088,16 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3904,16 +4156,16 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3921,16 +4173,16 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3938,16 +4190,16 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3955,16 +4207,16 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3972,16 +4224,16 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4023,16 +4275,16 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -4100,7 +4352,7 @@
         <v>611000</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4193,16 +4445,16 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4244,16 +4496,16 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4312,16 +4564,16 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4380,16 +4632,16 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4397,16 +4649,16 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4448,16 +4700,16 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4479,22 +4731,22 @@
     </row>
     <row r="80" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:E80" si="4">B79/B3</f>
+        <f t="shared" ref="B80:E80" si="9">B79/B3</f>
         <v>7.8021787714104285E-2</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.18514165415805225</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.62527239228229659</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.35966580442077878</v>
       </c>
     </row>
@@ -4537,21 +4789,21 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L83" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="M83" s="66"/>
+        <v>91</v>
+      </c>
+      <c r="L83" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="M83" s="68"/>
     </row>
     <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4569,10 +4821,10 @@
       <c r="E84" s="1">
         <v>-1817000</v>
       </c>
-      <c r="L84" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="M84" s="68"/>
+      <c r="L84" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="M84" s="69"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4588,12 +4840,12 @@
         <v>70449000</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L85" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="M85" s="25">
+        <v>91</v>
+      </c>
+      <c r="L85" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="M85" s="36">
         <f>E17</f>
         <v>0</v>
       </c>
@@ -4612,12 +4864,12 @@
         <v>2396000</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L86" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="M86" s="25">
+        <v>91</v>
+      </c>
+      <c r="L86" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="M86" s="36">
         <f>E56</f>
         <v>3380000</v>
       </c>
@@ -4638,10 +4890,10 @@
       <c r="E87" s="10">
         <v>-84462000</v>
       </c>
-      <c r="L87" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="M87" s="25">
+      <c r="L87" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="M87" s="36">
         <f>E61</f>
         <v>12093000</v>
       </c>
@@ -4657,43 +4909,43 @@
         <v>-4304000</v>
       </c>
       <c r="D88" s="1">
-        <v>-214000</v>
+        <v>-6382000</v>
       </c>
       <c r="E88" s="1">
-        <v>-252000</v>
-      </c>
-      <c r="L88" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="M88" s="35">
+        <v>-8746000</v>
+      </c>
+      <c r="L88" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="M88" s="38">
         <f>M85/(M86+M87)</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:E89" si="10">(-1*B88)/B3</f>
+        <v>8.0817410379264553E-3</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="10"/>
+        <v>2.0315877915923229E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="10"/>
+        <v>1.9895937575015041E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="10"/>
+        <v>1.8378235260743576E-2</v>
+      </c>
+      <c r="L89" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:E89" si="5">(-1*B88)/B3</f>
-        <v>8.0817410379264553E-3</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="5"/>
-        <v>2.0315877915923229E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="5"/>
-        <v>6.6714676293532101E-4</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="5"/>
-        <v>5.2953524876599373E-4</v>
-      </c>
-      <c r="L89" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="M89" s="25">
+      <c r="M89" s="36">
         <f>E27</f>
         <v>1013000</v>
       </c>
@@ -4703,21 +4955,21 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L90" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="L90" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="M90" s="25">
+      <c r="M90" s="36">
         <f>E25</f>
         <v>-273285000</v>
       </c>
@@ -4733,15 +4985,15 @@
         <v>-50000000</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L91" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="M91" s="35">
+        <v>91</v>
+      </c>
+      <c r="L91" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="M91" s="38">
         <f>M89/M90</f>
         <v>-3.7067530234004792E-3</v>
       </c>
@@ -4757,15 +5009,15 @@
         <v>80000000</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L92" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="M92" s="37">
+        <v>91</v>
+      </c>
+      <c r="L92" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="M92" s="38">
         <f>M88*(1-M91)</f>
         <v>0</v>
       </c>
@@ -4775,7 +5027,7 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1">
         <v>-2920000</v>
@@ -4786,10 +5038,10 @@
       <c r="E93" s="1">
         <v>-8746000</v>
       </c>
-      <c r="L93" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="M93" s="68"/>
+      <c r="L93" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="M93" s="69"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4807,11 +5059,12 @@
       <c r="E94" s="10">
         <v>-8998000</v>
       </c>
-      <c r="L94" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="M94" s="38">
-        <v>4.095E-2</v>
+      <c r="L94" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="M94" s="39">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4819,21 +5072,21 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L95" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="M95" s="39" cm="1">
+        <v>91</v>
+      </c>
+      <c r="L95" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="M95" s="40" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
         <v>2.6059999999999999</v>
       </c>
@@ -4843,21 +5096,21 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1">
         <v>1252974000</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L96" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="M96" s="38">
+        <v>91</v>
+      </c>
+      <c r="L96" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="M96" s="39">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -4866,23 +5119,23 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L97" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="M97" s="37">
+        <v>91</v>
+      </c>
+      <c r="L97" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="M97" s="38">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.1531383</v>
+        <v>0.15607727999999998</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4890,21 +5143,21 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L98" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="M98" s="68"/>
+        <v>91</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="L98" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="M98" s="69"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -4922,10 +5175,10 @@
       <c r="E99" s="1">
         <v>21983000</v>
       </c>
-      <c r="L99" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="M99" s="25">
+      <c r="L99" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="M99" s="36">
         <f>M86+M87</f>
         <v>15473000</v>
       </c>
@@ -4946,10 +5199,10 @@
       <c r="E100" s="10">
         <v>21983000</v>
       </c>
-      <c r="L100" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="M100" s="35">
+      <c r="L100" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="M100" s="38">
         <f>M99/M103</f>
         <v>2.9864962494482623E-3</v>
       </c>
@@ -4959,21 +5212,21 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L101" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="M101" s="40" cm="1">
+        <v>91</v>
+      </c>
+      <c r="L101" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="M101" s="30" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
         <v>5165514588</v>
       </c>
@@ -4994,10 +5247,10 @@
       <c r="E102" s="10">
         <v>-71477000</v>
       </c>
-      <c r="L102" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="M102" s="35">
+      <c r="L102" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="M102" s="38">
         <f>M101/M103</f>
         <v>0.99701350375055176</v>
       </c>
@@ -5018,8 +5271,8 @@
       <c r="E103" s="1">
         <v>1357611000</v>
       </c>
-      <c r="L103" s="36" t="s">
-        <v>144</v>
+      <c r="L103" s="37" t="s">
+        <v>141</v>
       </c>
       <c r="M103" s="41">
         <f>M99+M101</f>
@@ -5042,246 +5295,261 @@
       <c r="E104" s="11">
         <v>1286134000</v>
       </c>
-      <c r="L104" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="M104" s="68"/>
+      <c r="L104" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="M104" s="69"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
+        <v>160</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:D105" si="11">(B22*(1-0.2))+B77+B88+B81</f>
+        <v>-31677600</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="11"/>
+        <v>-68997200</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="11"/>
+        <v>-206874200</v>
+      </c>
+      <c r="E105" s="1">
+        <f>(E22*(1-0.2))+E77+E88+E81</f>
+        <v>-227900600</v>
+      </c>
+      <c r="F105" s="28">
+        <f>E105*(1+$P$106)</f>
+        <v>-227900600</v>
+      </c>
+      <c r="G105" s="28">
+        <f t="shared" ref="G105:J105" si="12">F105*(1+$P$106)</f>
+        <v>-227900600</v>
+      </c>
+      <c r="H105" s="28">
+        <f t="shared" si="12"/>
+        <v>-227900600</v>
+      </c>
+      <c r="I105" s="28">
+        <f t="shared" si="12"/>
+        <v>-227900600</v>
+      </c>
+      <c r="J105" s="28">
+        <f t="shared" si="12"/>
+        <v>-227900600</v>
+      </c>
+      <c r="K105" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="L105" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="M105" s="43">
+        <f>(M100*M92)+(M102*M97)</f>
+        <v>0.15561115578865589</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
         <v>0.59642187766229338</v>
       </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
         <v>0.3407688859478728</v>
       </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
         <v>0.48795593128592119</v>
       </c>
-      <c r="F105" s="60">
-        <v>-86060000</v>
-      </c>
-      <c r="G105" s="60">
-        <v>7159000</v>
-      </c>
-      <c r="H105" s="60">
-        <v>91642000</v>
-      </c>
-      <c r="I105" s="60">
-        <v>150000000</v>
-      </c>
-      <c r="J105" s="60">
-        <v>215000000</v>
-      </c>
-      <c r="K105" s="15"/>
-      <c r="L105" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="M105" s="27">
-        <f>(M100*M92)+(M102*M97)</f>
-        <v>0.15268095304140311</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>-29345000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-46847000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-62811000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-93460000</v>
-      </c>
-      <c r="F106" s="42">
-        <f>E106*(1+$M$106)</f>
-        <v>-117902179.4869266</v>
-      </c>
-      <c r="G106" s="42">
-        <f t="shared" ref="G106:J106" si="6">F106*(1+$M$106)</f>
-        <v>-148736613.82160771</v>
-      </c>
-      <c r="H106" s="42">
-        <f t="shared" si="6"/>
-        <v>-187635041.07717612</v>
-      </c>
-      <c r="I106" s="42">
-        <f t="shared" si="6"/>
-        <v>-236706401.57412866</v>
-      </c>
-      <c r="J106" s="42">
-        <f t="shared" si="6"/>
-        <v>-298611177.44593883</v>
-      </c>
-      <c r="K106" s="43" t="s">
-        <v>146</v>
+      <c r="F106" s="32">
+        <v>-74000000</v>
+      </c>
+      <c r="G106" s="32">
+        <v>6000000</v>
+      </c>
+      <c r="H106" s="32">
+        <v>62000000</v>
+      </c>
+      <c r="I106" s="32">
+        <v>184000000</v>
+      </c>
+      <c r="J106" s="32">
+        <v>257000000</v>
+      </c>
+      <c r="K106" s="29" t="s">
+        <v>164</v>
       </c>
       <c r="L106" s="44" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M106" s="45">
         <f>(SUM(F4:J4)/5)</f>
-        <v>0.26152556694764173</v>
+        <v>0.26372069055288938</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="61">
-        <f>J105*(1+M107)/(M108-M107)</f>
-        <v>1725981790.9452708</v>
-      </c>
-      <c r="K107" s="47" t="s">
+      <c r="A107" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-29345000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-46847000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-62811000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-93460000</v>
+      </c>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="33">
+        <f>J106*(1+M107)/(M108-M107)</f>
+        <v>2016864473.8605053</v>
+      </c>
+      <c r="K107" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="L107" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="M107" s="47">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F108" s="30">
+        <f t="shared" ref="F108:H108" si="13">F107+F106</f>
+        <v>-74000000</v>
+      </c>
+      <c r="G108" s="30">
+        <f t="shared" si="13"/>
+        <v>6000000</v>
+      </c>
+      <c r="H108" s="30">
+        <f t="shared" si="13"/>
+        <v>62000000</v>
+      </c>
+      <c r="I108" s="30">
+        <f>I107+I106</f>
+        <v>184000000</v>
+      </c>
+      <c r="J108" s="33">
+        <f>J107+J106</f>
+        <v>2273864473.8605051</v>
+      </c>
+      <c r="K108" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="L108" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="M108" s="45">
+        <f>M105</f>
+        <v>0.15561115578865589</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F109" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="G109" s="66"/>
+    </row>
+    <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F110" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="L107" s="48" t="s">
+      <c r="G110" s="30">
+        <f>NPV(M108,F108,G108,H108,I108,J108)</f>
+        <v>1187138066.9065299</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F111" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="M107" s="49">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="46">
-        <f t="shared" ref="F108:H108" si="7">F107+F106</f>
-        <v>-117902179.4869266</v>
-      </c>
-      <c r="G108" s="46">
-        <f t="shared" si="7"/>
-        <v>-148736613.82160771</v>
-      </c>
-      <c r="H108" s="46">
-        <f t="shared" si="7"/>
-        <v>-187635041.07717612</v>
-      </c>
-      <c r="I108" s="46">
-        <f>I107+I106</f>
-        <v>-236706401.57412866</v>
-      </c>
-      <c r="J108" s="61">
-        <f>J107+J105</f>
-        <v>1940981790.9452708</v>
-      </c>
-      <c r="K108" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="L108" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="M108" s="51">
-        <f>M105</f>
-        <v>0.15268095304140311</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="G109" s="63"/>
-    </row>
-    <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="G110" s="40">
-        <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>483014687.90952343</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="G111" s="40">
+      <c r="G111" s="30">
         <f>E40</f>
         <v>1286134000</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="G112" s="40">
+      <c r="F112" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="G112" s="30">
         <f>M99</f>
         <v>15473000</v>
       </c>
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="G113" s="40">
+      <c r="F113" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="G113" s="30">
         <f>G110+G111-G112</f>
-        <v>1753675687.9095235</v>
+        <v>2457799066.9065299</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="G114" s="53">
-        <f>E34*(1+(K16*5))</f>
-        <v>217993650.68309984</v>
+      <c r="F114" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="G114" s="49">
+        <f>E34*(1+(0*5))</f>
+        <v>186029000</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="G115" s="55">
+      <c r="F115" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G115" s="51">
         <f>G113/G114</f>
-        <v>8.0446181914667978</v>
+        <v>13.211913555986055</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="G116" s="56" cm="1">
+      <c r="F116" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="G116" s="52" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
         <v>26.92</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="G117" s="58">
+      <c r="F117" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="G117" s="53">
         <f>G115/G116-1</f>
-        <v>-0.70116574325903436</v>
+        <v>-0.50921569257109756</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="G118" s="59" t="str">
+      <c r="F118" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="G118" s="54" t="str">
         <f>IF(G115&gt;G116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="F109:G109"/>
-    <mergeCell ref="K21:N34"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="L93:M93"/>
@@ -5299,8 +5567,9 @@
     <hyperlink ref="E36" r:id="rId8" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E74" r:id="rId9" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="F1" r:id="rId10" display="https://finbox.com/NASDAQGS:HCP/explorer/revenue_proj" xr:uid="{57E7EC33-4DA7-F142-B92B-E6C10E6735A6}"/>
+    <hyperlink ref="K106" r:id="rId11" xr:uid="{D4593FAA-41E9-1E44-B6B8-7B0C971D76B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>